--- a/data/trans_orig/P14B35-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B35-Estudios-trans_orig.xlsx
@@ -1041,19 +1041,19 @@
         <v>3074</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8119</v>
+        <v>8240</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002298174598818037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0007315774834462358</v>
+        <v>0.0007299140212885966</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.006069103307892402</v>
+        <v>0.0061593900115796</v>
       </c>
     </row>
     <row r="5">
@@ -1070,19 +1070,19 @@
         <v>1334723</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1329678</v>
+        <v>1329557</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1336818</v>
+        <v>1336821</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9977018254011819</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9939308966921075</v>
+        <v>0.9938406099884203</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9992684225165538</v>
+        <v>0.9992700859787114</v>
       </c>
     </row>
     <row r="6">
@@ -1132,19 +1132,19 @@
         <v>34172</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24225</v>
+        <v>24941</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49312</v>
+        <v>48479</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0194869211095771</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01381461549549023</v>
+        <v>0.01422262341210382</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02812044776711761</v>
+        <v>0.02764554473880423</v>
       </c>
     </row>
     <row r="8">
@@ -1161,19 +1161,19 @@
         <v>1719422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1704282</v>
+        <v>1705115</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1729369</v>
+        <v>1728653</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9805130788904229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9718795522328824</v>
+        <v>0.9723544552611962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9861853845045098</v>
+        <v>0.9857773765878965</v>
       </c>
     </row>
     <row r="9">
@@ -1223,19 +1223,19 @@
         <v>6459</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1973</v>
+        <v>2595</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13041</v>
+        <v>13789</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01408427199843142</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004302721462199496</v>
+        <v>0.005658382329914583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02843402830803505</v>
+        <v>0.03006448707467498</v>
       </c>
     </row>
     <row r="11">
@@ -1252,19 +1252,19 @@
         <v>452172</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>445590</v>
+        <v>444842</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456658</v>
+        <v>456036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9859157280015686</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.971565971691965</v>
+        <v>0.9699355129253251</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956972785378005</v>
+        <v>0.9943416176700857</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>43706</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>31959</v>
+        <v>32464</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>58542</v>
+        <v>58686</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01231150968709827</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009002388381627461</v>
+        <v>0.009144770717358639</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01649066992400211</v>
+        <v>0.01653106940437495</v>
       </c>
     </row>
     <row r="14">
@@ -1343,19 +1343,19 @@
         <v>3506316</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3491480</v>
+        <v>3491336</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3518063</v>
+        <v>3517558</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9876884903129017</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9835093300759979</v>
+        <v>0.983468930595625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9909976116183726</v>
+        <v>0.9908552292826414</v>
       </c>
     </row>
     <row r="15">
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5753</v>
+        <v>6583</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00189902335631968</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.005783925597693969</v>
+        <v>0.006617945232945879</v>
       </c>
     </row>
     <row r="5">
@@ -1551,7 +1551,7 @@
         <v>992771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>988907</v>
+        <v>988077</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>994660</v>
@@ -1560,7 +1560,7 @@
         <v>0.9981009766436804</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.994216074402306</v>
+        <v>0.9933820547670541</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -1613,19 +1613,19 @@
         <v>12555</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7158</v>
+        <v>7255</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21749</v>
+        <v>20694</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006314563924895032</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003600146586640971</v>
+        <v>0.003649052923942522</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01093863536965432</v>
+        <v>0.01040802474909727</v>
       </c>
     </row>
     <row r="8">
@@ -1642,19 +1642,19 @@
         <v>1975745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1966551</v>
+        <v>1967606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1981142</v>
+        <v>1981045</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.993685436075105</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9890613646303457</v>
+        <v>0.9895919752509024</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9963998534133592</v>
+        <v>0.9963509470760573</v>
       </c>
     </row>
     <row r="9">
@@ -1704,19 +1704,19 @@
         <v>2952</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7478</v>
+        <v>7876</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.005376283382577424</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001655680253440264</v>
+        <v>0.001663885797122199</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01361819662586833</v>
+        <v>0.01434185196306401</v>
       </c>
     </row>
     <row r="11">
@@ -1733,19 +1733,19 @@
         <v>546188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>541662</v>
+        <v>541264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>548231</v>
+        <v>548226</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9946237166174225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9863818033741314</v>
+        <v>0.985658148036936</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983443197465598</v>
+        <v>0.9983361142028778</v>
       </c>
     </row>
     <row r="12">
@@ -1795,19 +1795,19 @@
         <v>17396</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10413</v>
+        <v>10708</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26315</v>
+        <v>26997</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004925246136997393</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002948221146272603</v>
+        <v>0.003031639977036675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.007450328942604281</v>
+        <v>0.007643202126686722</v>
       </c>
     </row>
     <row r="14">
@@ -1824,19 +1824,19 @@
         <v>3514704</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3505785</v>
+        <v>3505103</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3521687</v>
+        <v>3521392</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9950747538630026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9925496710573956</v>
+        <v>0.9923567978733132</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9970517788537272</v>
+        <v>0.9969683600229633</v>
       </c>
     </row>
     <row r="15">
@@ -2003,19 +2003,19 @@
         <v>5520</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2228</v>
+        <v>2373</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11165</v>
+        <v>11072</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.006726162718587636</v>
+        <v>0.006726162718587638</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00271492398697539</v>
+        <v>0.002891136074521671</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01360438660503121</v>
+        <v>0.01349070204084716</v>
       </c>
     </row>
     <row r="5">
@@ -2032,19 +2032,19 @@
         <v>815189</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>809544</v>
+        <v>809637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>818481</v>
+        <v>818336</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9932738372814124</v>
+        <v>0.9932738372814123</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9863956133949688</v>
+        <v>0.9865092979591528</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9972850760130245</v>
+        <v>0.9971088639254783</v>
       </c>
     </row>
     <row r="6">
@@ -2094,19 +2094,19 @@
         <v>73377</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56241</v>
+        <v>57355</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>92853</v>
+        <v>95529</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03387670312648109</v>
+        <v>0.03387670312648108</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02596531010598729</v>
+        <v>0.02647980176399281</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04286831642985838</v>
+        <v>0.04410395696596128</v>
       </c>
     </row>
     <row r="8">
@@ -2123,19 +2123,19 @@
         <v>2092619</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2073143</v>
+        <v>2070467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2109755</v>
+        <v>2108641</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9661232968735192</v>
+        <v>0.9661232968735189</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9571316835701416</v>
+        <v>0.9558960430340391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9740346898940127</v>
+        <v>0.9735201982360076</v>
       </c>
     </row>
     <row r="9">
@@ -2185,19 +2185,19 @@
         <v>41266</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>30478</v>
+        <v>29860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>55665</v>
+        <v>54001</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05656921690821517</v>
+        <v>0.05656921690821518</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04178090454081761</v>
+        <v>0.04093334526148941</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07630844828588171</v>
+        <v>0.07402725238282312</v>
       </c>
     </row>
     <row r="11">
@@ -2214,19 +2214,19 @@
         <v>688212</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>673813</v>
+        <v>675477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699000</v>
+        <v>699618</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.943430783091785</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9236915517141182</v>
+        <v>0.9259727476171769</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9582190954591824</v>
+        <v>0.9590666547385106</v>
       </c>
     </row>
     <row r="12">
@@ -2276,19 +2276,19 @@
         <v>120163</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>97587</v>
+        <v>99527</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144871</v>
+        <v>145486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03233506720847732</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02625992677591612</v>
+        <v>0.02678203987935756</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03898394390214149</v>
+        <v>0.03914930572962565</v>
       </c>
     </row>
     <row r="14">
@@ -2305,19 +2305,19 @@
         <v>3596019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3571311</v>
+        <v>3570696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3618595</v>
+        <v>3616655</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9676649327915228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9610160560978587</v>
+        <v>0.9608506942703743</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.973740073224084</v>
+        <v>0.9732179601206425</v>
       </c>
     </row>
     <row r="15">
